--- a/medicine/Pharmacie/Cloxacilline/Cloxacilline.xlsx
+++ b/medicine/Pharmacie/Cloxacilline/Cloxacilline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cloxacilline est une molécule antibiotique de la même classe que la pénicilline.
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cloxacilline inhibe la PLP, enzyme permettant la synthèse du peptidoglycane bactérien.
 </t>
@@ -543,7 +557,9 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Antibiotique de première intention en cas d'infection à Staphylocoques sensibles aux pénicillines M dans leur localisation cutanée ou de parties molles, ostéo-articulaires, pleuro-pulmonaires, génito-urinaires, endocardiques et septicémiques.
 </t>
@@ -574,7 +590,9 @@
           <t>Contre-indication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Allergie connue aux pénicillines.
 </t>
@@ -605,7 +623,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut causer de la diarrhée, des maux de ventre,  des nausées ou, rarement, des vomissements. Il peut favoriser l'apparition de vaginites chez la femme.
 </t>
@@ -636,7 +656,9 @@
           <t>Spécialités contenant la cloxacilline (France)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>ORBENINE
 ORBENINE injectable</t>
@@ -667,9 +689,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cloxacilline fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cloxacilline fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
